--- a/Excel/Ch. 07. Excel - Normal Distribution - Probability of x between x1 and x2.xlsx
+++ b/Excel/Ch. 07. Excel - Normal Distribution - Probability of x between x1 and x2.xlsx
@@ -147,9 +147,6 @@
     <t>Enter the value of x2 in cell E7</t>
   </si>
   <si>
-    <t>The result, given in cell E11, is the probability P{x1&lt;X&lt;x2}</t>
-  </si>
-  <si>
     <t>Value of x1 =</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>RESULTS</t>
+  </si>
+  <si>
+    <t>The result, given in cell E11, is the required probability P{x1&lt;X&lt;x2}</t>
   </si>
 </sst>
 </file>
@@ -345,11 +345,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -360,8 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,13 +682,14 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -705,101 +706,101 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="21"/>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -809,19 +810,19 @@
       <c r="E8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="1"/>
@@ -829,62 +830,62 @@
       <c r="E9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="20">
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15">
         <f>_xlfn.NORM.DIST(E7,E4,E5,TRUE)-_xlfn.NORM.DIST(E6,E4,E5,TRUE)</f>
         <v>0.47724986805182079</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,22 +901,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
